--- a/data/trans_orig/cron_mort_index-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/cron_mort_index-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29425820-6880-424A-B615-649FC013BA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA7D5543-13CF-49D4-A845-1220378FEBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7CBA0F00-CD5D-4EB1-9FEF-B7562F32BEDA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8E34E2EE-B66E-42AF-9B59-CEF947BEE024}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="289">
   <si>
     <t>Índice de cronicidad física en base a la mortalidad en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -89,55 +89,55 @@
     <t>11,84%</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
   </si>
   <si>
     <t>13,21%</t>
   </si>
   <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
   </si>
   <si>
     <t>88,16%</t>
   </si>
   <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
   </si>
   <si>
     <t>85,72%</t>
   </si>
   <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
   <si>
     <t>86,79%</t>
   </si>
   <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
   </si>
   <si>
     <t>100%</t>
@@ -155,55 +155,55 @@
     <t>2,99%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -221,49 +221,55 @@
     <t>2,3%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>0,82%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>97,7%</t>
   </si>
   <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
   </si>
   <si>
     <t>98,23%</t>
   </si>
   <si>
-    <t>99,18%</t>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>97,95%</t>
   </si>
   <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>0,03%</t>
@@ -272,457 +278,454 @@
     <t>5,66%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
   </si>
   <si>
     <t>6,23%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
   </si>
   <si>
     <t>94,34%</t>
   </si>
   <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
   </si>
   <si>
     <t>93,22%</t>
   </si>
   <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
   </si>
   <si>
     <t>93,77%</t>
   </si>
   <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Índice de cronicidad física en base a la mortalidad en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>Índice de cronicidad física en base a la mortalidad en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
     <t>93,12%</t>
   </si>
   <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad física en base a la mortalidad en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad física en base a la mortalidad en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
+    <t>94,66%</t>
   </si>
   <si>
     <t>0,77%</t>
@@ -731,40 +734,43 @@
     <t>0,57%</t>
   </si>
   <si>
-    <t>1,61%</t>
+    <t>1,68%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>0,85%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
   </si>
   <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
   </si>
   <si>
     <t>95,29%</t>
@@ -773,30 +779,33 @@
     <t>92,85%</t>
   </si>
   <si>
-    <t>97,0%</t>
+    <t>96,9%</t>
   </si>
   <si>
     <t>94,67%</t>
   </si>
   <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>94,98%</t>
   </si>
   <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
+    <t>0,05%</t>
+  </si>
+  <si>
     <t>0,32%</t>
   </si>
   <si>
@@ -809,52 +818,58 @@
     <t>9,36%</t>
   </si>
   <si>
-    <t>10,58%</t>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
   </si>
   <si>
     <t>10,19%</t>
   </si>
   <si>
-    <t>11,36%</t>
+    <t>9,13%</t>
   </si>
   <si>
     <t>9,79%</t>
   </si>
   <si>
-    <t>10,6%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
   </si>
   <si>
     <t>90,49%</t>
   </si>
   <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
   <si>
     <t>89,69%</t>
   </si>
   <si>
-    <t>90,7%</t>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
   </si>
   <si>
     <t>90,08%</t>
   </si>
   <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
   </si>
   <si>
     <t>Índice de cronicidad física en base a la mortalidad en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -1302,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A643F892-4715-49F8-B0B1-2E82A093E073}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B61E4B1-518C-4D59-AF81-A4EB0FA29BDC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1910,7 +1925,7 @@
         <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -1919,13 +1934,13 @@
         <v>21093</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1955,13 @@
         <v>538746</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>444</v>
@@ -1955,13 +1970,13 @@
         <v>467981</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>959</v>
@@ -1970,13 +1985,13 @@
         <v>1006727</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,7 +2095,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2110,13 @@
         <v>185467</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>224</v>
@@ -2110,13 +2125,13 @@
         <v>229249</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>416</v>
@@ -2125,13 +2140,13 @@
         <v>414716</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2146,13 +2161,13 @@
         <v>3091077</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H18" s="7">
         <v>3073</v>
@@ -2161,28 +2176,28 @@
         <v>3149949</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>6095</v>
       </c>
       <c r="N18" s="7">
-        <v>6241024</v>
+        <v>6241025</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,7 +2239,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>33</v>
@@ -2238,7 +2253,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2257,7 +2272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516C15B8-A8C4-456F-A9E9-2E556BE66469}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9177DB5F-36F0-4EBB-A155-2FC368499C58}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2274,7 +2289,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2381,13 +2396,13 @@
         <v>7111</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -2396,13 +2411,13 @@
         <v>5880</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -2411,13 +2426,13 @@
         <v>12991</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,13 +2447,13 @@
         <v>173539</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H5" s="7">
         <v>256</v>
@@ -2447,13 +2462,13 @@
         <v>271192</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M5" s="7">
         <v>414</v>
@@ -2462,13 +2477,13 @@
         <v>444731</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,13 +2498,13 @@
         <v>793993</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H6" s="7">
         <v>985</v>
@@ -2498,13 +2513,13 @@
         <v>1060725</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M6" s="7">
         <v>1729</v>
@@ -2513,13 +2528,13 @@
         <v>1854718</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,13 +2602,13 @@
         <v>1996</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2602,13 +2617,13 @@
         <v>1835</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -2617,13 +2632,13 @@
         <v>3831</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,13 +2653,13 @@
         <v>89386</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H9" s="7">
         <v>71</v>
@@ -2653,13 +2668,13 @@
         <v>79881</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M9" s="7">
         <v>156</v>
@@ -2668,13 +2683,13 @@
         <v>169268</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,13 +2704,13 @@
         <v>1872574</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H10" s="7">
         <v>1562</v>
@@ -2704,13 +2719,13 @@
         <v>1676086</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M10" s="7">
         <v>3331</v>
@@ -2719,13 +2734,13 @@
         <v>3548661</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,7 +2814,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2814,7 +2829,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2829,7 +2844,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2859,13 @@
         <v>15152</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2859,13 +2874,13 @@
         <v>11372</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -2874,13 +2889,13 @@
         <v>26523</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,13 +2910,13 @@
         <v>466029</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>402</v>
@@ -2910,13 +2925,13 @@
         <v>447259</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>827</v>
@@ -2925,13 +2940,13 @@
         <v>913289</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +3014,13 @@
         <v>9107</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3014,13 +3029,13 @@
         <v>7715</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -3029,13 +3044,13 @@
         <v>16822</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3065,13 @@
         <v>278078</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H17" s="7">
         <v>337</v>
@@ -3065,13 +3080,13 @@
         <v>362445</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M17" s="7">
         <v>593</v>
@@ -3080,13 +3095,13 @@
         <v>640522</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3116,13 @@
         <v>3132598</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H18" s="7">
         <v>2949</v>
@@ -3116,13 +3131,13 @@
         <v>3184070</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M18" s="7">
         <v>5887</v>
@@ -3131,13 +3146,13 @@
         <v>6316668</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,7 +3208,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3212,7 +3227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC20814-7B80-4C56-8412-73D916E8306B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F69E6C7-FC11-4642-A78D-DE76FAB5732B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3229,7 +3244,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3336,13 +3351,13 @@
         <v>3625</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>35</v>
+        <v>186</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3351,13 +3366,13 @@
         <v>1016</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3366,13 +3381,13 @@
         <v>4642</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,13 +3402,13 @@
         <v>155544</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H5" s="7">
         <v>190</v>
@@ -3402,13 +3417,13 @@
         <v>222579</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M5" s="7">
         <v>355</v>
@@ -3417,13 +3432,13 @@
         <v>378123</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3453,13 @@
         <v>595177</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H6" s="7">
         <v>701</v>
@@ -3453,13 +3468,13 @@
         <v>771065</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M6" s="7">
         <v>1294</v>
@@ -3468,13 +3483,13 @@
         <v>1366243</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,13 +3557,13 @@
         <v>891</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3563,7 +3578,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3572,13 +3587,13 @@
         <v>891</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3608,13 @@
         <v>135538</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H9" s="7">
         <v>98</v>
@@ -3608,13 +3623,13 @@
         <v>111348</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M9" s="7">
         <v>228</v>
@@ -3623,13 +3638,13 @@
         <v>246886</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +3659,13 @@
         <v>1939956</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>1810</v>
@@ -3659,13 +3674,13 @@
         <v>1876952</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>3631</v>
@@ -3674,13 +3689,13 @@
         <v>3816908</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,13 +3763,13 @@
         <v>736</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -3763,13 +3778,13 @@
         <v>3103</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -3778,13 +3793,13 @@
         <v>3839</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3814,13 @@
         <v>24996</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -3814,13 +3829,13 @@
         <v>26164</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -3829,13 +3844,13 @@
         <v>51160</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,13 +3865,13 @@
         <v>521154</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
         <v>499</v>
@@ -3865,13 +3880,13 @@
         <v>519873</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
         <v>978</v>
@@ -3880,13 +3895,13 @@
         <v>1041027</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +3969,13 @@
         <v>5253</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>36</v>
+        <v>254</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3972,10 +3987,10 @@
         <v>35</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -3984,13 +3999,13 @@
         <v>9372</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +4020,13 @@
         <v>316078</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H17" s="7">
         <v>312</v>
@@ -4020,13 +4035,13 @@
         <v>360090</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="M17" s="7">
         <v>628</v>
@@ -4035,13 +4050,13 @@
         <v>676168</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>169</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4071,13 @@
         <v>3056287</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H18" s="7">
         <v>3010</v>
@@ -4071,13 +4086,13 @@
         <v>3167890</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M18" s="7">
         <v>5903</v>
@@ -4086,13 +4101,13 @@
         <v>6224177</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,7 +4163,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4167,7 +4182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877D7529-1493-46A0-B2CE-B250D5CD3298}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721AD748-08F8-4C64-AC55-8305C7A0A533}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4184,7 +4199,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4297,7 +4312,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4312,7 +4327,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4327,7 +4342,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,7 +4363,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4363,7 +4378,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4378,7 +4393,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,10 +4408,10 @@
         <v>541634</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>33</v>
@@ -4408,10 +4423,10 @@
         <v>835953</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>33</v>
@@ -4423,10 +4438,10 @@
         <v>1377586</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>33</v>
@@ -4503,7 +4518,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4518,7 +4533,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4533,7 +4548,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,7 +4569,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4569,7 +4584,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4584,7 +4599,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,10 +4614,10 @@
         <v>2162022</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>33</v>
@@ -4611,13 +4626,13 @@
         <v>2921</v>
       </c>
       <c r="I10" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>33</v>
@@ -4629,10 +4644,10 @@
         <v>4411543</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>33</v>
@@ -4662,7 +4677,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>33</v>
@@ -4709,7 +4724,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4724,7 +4739,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4739,7 +4754,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,7 +4775,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4775,7 +4790,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4790,7 +4805,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,10 +4820,10 @@
         <v>673039</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>33</v>
@@ -4820,10 +4835,10 @@
         <v>713886</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>33</v>
@@ -4835,10 +4850,10 @@
         <v>1386926</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>33</v>
@@ -4930,7 +4945,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4945,7 +4960,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,7 +4996,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4996,7 +5011,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,13 +5023,13 @@
         <v>3364</v>
       </c>
       <c r="D18" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>33</v>
@@ -5026,10 +5041,10 @@
         <v>3799360</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>33</v>
@@ -5038,13 +5053,13 @@
         <v>8716</v>
       </c>
       <c r="N18" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>33</v>
@@ -5059,7 +5074,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>33</v>
@@ -5089,7 +5104,7 @@
         <v>8716</v>
       </c>
       <c r="N19" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>33</v>
@@ -5103,7 +5118,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/cron_mort_index-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/cron_mort_index-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA7D5543-13CF-49D4-A845-1220378FEBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08AC7BA7-DFF6-4E14-A2EE-0D5230526126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8E34E2EE-B66E-42AF-9B59-CEF947BEE024}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8E35EAA1-A3CC-47D3-B363-9057E2F761B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="282">
   <si>
     <t>Índice de cronicidad física en base a la mortalidad en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -89,55 +89,55 @@
     <t>11,84%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
   </si>
   <si>
     <t>13,21%</t>
   </si>
   <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
   </si>
   <si>
     <t>88,16%</t>
   </si>
   <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>85,72%</t>
   </si>
   <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
   </si>
   <si>
     <t>86,79%</t>
   </si>
   <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
   </si>
   <si>
     <t>100%</t>
@@ -155,55 +155,49 @@
     <t>2,99%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>3,19%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>96,81%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -221,19 +215,19 @@
     <t>2,3%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
   </si>
   <si>
     <t>2,05%</t>
@@ -242,31 +236,31 @@
     <t>1,33%</t>
   </si>
   <si>
-    <t>3,11%</t>
+    <t>3,1%</t>
   </si>
   <si>
     <t>97,7%</t>
   </si>
   <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
   </si>
   <si>
     <t>98,23%</t>
   </si>
   <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>97,95%</t>
   </si>
   <si>
-    <t>96,89%</t>
+    <t>96,9%</t>
   </si>
   <si>
     <t>98,67%</t>
@@ -278,592 +272,577 @@
     <t>5,66%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
   </si>
   <si>
     <t>6,23%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
   </si>
   <si>
     <t>94,34%</t>
   </si>
   <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
   </si>
   <si>
     <t>93,22%</t>
   </si>
   <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
   </si>
   <si>
     <t>93,77%</t>
   </si>
   <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Índice de cronicidad física en base a la mortalidad en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>Índice de cronicidad física en base a la mortalidad en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
     <t>93,09%</t>
   </si>
   <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad física en base a la mortalidad en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
   </si>
   <si>
     <t>90,68%</t>
   </si>
   <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad física en base a la mortalidad en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
     <t>90,08%</t>
   </si>
   <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
   </si>
   <si>
     <t>Índice de cronicidad física en base a la mortalidad en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1317,7 +1296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B61E4B1-518C-4D59-AF81-A4EB0FA29BDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E585D4-1564-4145-A87A-BB953C3FA773}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1731,10 +1710,10 @@
         <v>43</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1746,16 +1725,16 @@
         <v>1597</v>
       </c>
       <c r="D10" s="7">
-        <v>1642750</v>
+        <v>1642751</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>1522</v>
@@ -1764,13 +1743,13 @@
         <v>1554718</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>3119</v>
@@ -1779,13 +1758,13 @@
         <v>3197469</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1797,7 +1776,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>33</v>
@@ -1841,7 +1820,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5">
         <v>2</v>
@@ -1859,7 +1838,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1874,7 +1853,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1889,7 +1868,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,13 +1883,13 @@
         <v>12662</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -1919,13 +1898,13 @@
         <v>8431</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -1934,13 +1913,13 @@
         <v>21093</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,13 +1934,13 @@
         <v>538746</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>444</v>
@@ -1970,13 +1949,13 @@
         <v>467981</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>959</v>
@@ -1985,13 +1964,13 @@
         <v>1006727</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,7 +2074,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,13 +2089,13 @@
         <v>185467</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>224</v>
@@ -2125,13 +2104,13 @@
         <v>229249</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>416</v>
@@ -2140,13 +2119,13 @@
         <v>414716</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,16 +2137,16 @@
         <v>3022</v>
       </c>
       <c r="D18" s="7">
-        <v>3091077</v>
+        <v>3091076</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H18" s="7">
         <v>3073</v>
@@ -2176,13 +2155,13 @@
         <v>3149949</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>6095</v>
@@ -2191,13 +2170,13 @@
         <v>6241025</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,7 +2188,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>33</v>
@@ -2253,7 +2232,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2272,7 +2251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9177DB5F-36F0-4EBB-A155-2FC368499C58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4D2039-A754-442E-81DF-90B9450EAA32}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2289,7 +2268,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2396,13 +2375,13 @@
         <v>7111</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -2411,13 +2390,13 @@
         <v>5880</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -2426,13 +2405,13 @@
         <v>12991</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,13 +2426,13 @@
         <v>173539</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H5" s="7">
         <v>256</v>
@@ -2462,13 +2441,13 @@
         <v>271192</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M5" s="7">
         <v>414</v>
@@ -2477,13 +2456,13 @@
         <v>444731</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,13 +2477,13 @@
         <v>793993</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H6" s="7">
         <v>985</v>
@@ -2513,13 +2492,13 @@
         <v>1060725</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M6" s="7">
         <v>1729</v>
@@ -2528,13 +2507,13 @@
         <v>1854718</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,13 +2581,13 @@
         <v>1996</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2617,13 +2596,13 @@
         <v>1835</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -2632,13 +2611,13 @@
         <v>3831</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,13 +2632,13 @@
         <v>89386</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H9" s="7">
         <v>71</v>
@@ -2668,13 +2647,13 @@
         <v>79881</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M9" s="7">
         <v>156</v>
@@ -2683,13 +2662,13 @@
         <v>169268</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,13 +2683,13 @@
         <v>1872574</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H10" s="7">
         <v>1562</v>
@@ -2719,13 +2698,13 @@
         <v>1676086</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>3331</v>
@@ -2734,13 +2713,13 @@
         <v>3548661</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,7 +2775,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5">
         <v>2</v>
@@ -2814,7 +2793,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2829,7 +2808,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2844,7 +2823,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,13 +2838,13 @@
         <v>15152</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2874,13 +2853,13 @@
         <v>11372</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -2889,13 +2868,13 @@
         <v>26523</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,13 +2889,13 @@
         <v>466029</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>402</v>
@@ -2925,13 +2904,13 @@
         <v>447259</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7">
         <v>827</v>
@@ -2940,13 +2919,13 @@
         <v>913289</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +2993,13 @@
         <v>9107</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3029,13 +3008,13 @@
         <v>7715</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -3044,13 +3023,13 @@
         <v>16822</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3044,13 @@
         <v>278078</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H17" s="7">
         <v>337</v>
@@ -3080,13 +3059,13 @@
         <v>362445</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M17" s="7">
         <v>593</v>
@@ -3095,13 +3074,13 @@
         <v>640522</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,7 +3187,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3227,7 +3206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F69E6C7-FC11-4642-A78D-DE76FAB5732B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EC57D7-30DB-4419-AC23-68B5DCB2677F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3366,7 +3345,7 @@
         <v>1016</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>10</v>
@@ -3381,10 +3360,10 @@
         <v>4642</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>189</v>
@@ -3563,7 +3542,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3578,7 +3557,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3593,7 +3572,7 @@
         <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3587,13 @@
         <v>135538</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H9" s="7">
         <v>98</v>
@@ -3623,13 +3602,13 @@
         <v>111348</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M9" s="7">
         <v>228</v>
@@ -3638,13 +3617,13 @@
         <v>246886</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>219</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3638,13 @@
         <v>1939956</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7">
         <v>1810</v>
@@ -3674,13 +3653,13 @@
         <v>1876952</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7">
         <v>3631</v>
@@ -3689,13 +3668,13 @@
         <v>3816908</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,7 +3730,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5">
         <v>2</v>
@@ -3769,7 +3748,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -3778,13 +3757,13 @@
         <v>3103</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -3793,13 +3772,13 @@
         <v>3839</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3793,13 @@
         <v>24996</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -3829,13 +3808,13 @@
         <v>26164</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -3844,13 +3823,13 @@
         <v>51160</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3844,13 @@
         <v>521154</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
         <v>499</v>
@@ -3880,13 +3859,13 @@
         <v>519873</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M14" s="7">
         <v>978</v>
@@ -3895,13 +3874,13 @@
         <v>1041027</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>252</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3948,13 @@
         <v>5253</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>253</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>255</v>
+        <v>123</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3987,10 +3966,10 @@
         <v>35</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>256</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -3999,13 +3978,13 @@
         <v>9372</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +3999,13 @@
         <v>316078</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H17" s="7">
         <v>312</v>
@@ -4035,13 +4014,13 @@
         <v>360090</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="M17" s="7">
         <v>628</v>
@@ -4050,13 +4029,13 @@
         <v>676168</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,13 +4050,13 @@
         <v>3056287</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H18" s="7">
         <v>3010</v>
@@ -4086,13 +4065,13 @@
         <v>3167890</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="M18" s="7">
         <v>5903</v>
@@ -4101,13 +4080,13 @@
         <v>6224177</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,7 +4142,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4182,7 +4161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721AD748-08F8-4C64-AC55-8305C7A0A533}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8653E462-1184-47F7-B56C-B4221D2E6203}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4199,7 +4178,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4312,7 +4291,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4342,7 +4321,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,7 +4342,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4393,7 +4372,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,10 +4387,10 @@
         <v>541634</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>33</v>
@@ -4423,10 +4402,10 @@
         <v>835953</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>33</v>
@@ -4438,10 +4417,10 @@
         <v>1377586</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>33</v>
@@ -4518,7 +4497,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4533,7 +4512,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4569,7 +4548,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4584,7 +4563,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4614,10 +4593,10 @@
         <v>2162022</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>33</v>
@@ -4629,10 +4608,10 @@
         <v>2249521</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>33</v>
@@ -4644,10 +4623,10 @@
         <v>4411543</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>33</v>
@@ -4706,7 +4685,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5">
         <v>2</v>
@@ -4724,7 +4703,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4739,7 +4718,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4754,7 +4733,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,7 +4754,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4790,7 +4769,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4805,7 +4784,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,10 +4799,10 @@
         <v>673039</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>33</v>
@@ -4835,10 +4814,10 @@
         <v>713886</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>33</v>
@@ -4850,10 +4829,10 @@
         <v>1386926</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>33</v>
@@ -5026,10 +5005,10 @@
         <v>3376694</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>33</v>
@@ -5041,10 +5020,10 @@
         <v>3799360</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>33</v>
@@ -5056,10 +5035,10 @@
         <v>7176054</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>33</v>
@@ -5118,7 +5097,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/cron_mort_index-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/cron_mort_index-Estudios-trans_orig.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,5</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 0,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 0,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 0,53</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 0,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 0,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 0,21</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 0,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 0,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 0,17</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 0,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 0,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 0,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/cron_mort_index-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/cron_mort_index-Estudios-trans_orig.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 0,56</t>
+          <t>0,45; 0,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,24</t>
+          <t>0,19; 0,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 0,53</t>
+          <t>0,46; 0,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 0,53</t>
+          <t>0,46; 0,53</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,24</t>
+          <t>0,12; 0,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,05</t>
+          <t>0,04; 0,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,23</t>
+          <t>0,15; 0,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,27</t>
+          <t>0,18; 0,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,25</t>
+          <t>0,2; 0,25</t>
         </is>
       </c>
     </row>
